--- a/Fac_Data.xlsx
+++ b/Fac_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C322C415-D20A-4767-85A4-D1AC58F86001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A11E9B-EE9A-4741-819D-29E52DAAD7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76917F49-16B5-4080-99FC-8E748EE99F5F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Title</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Factoriall</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Enter an integer</t>
+  </si>
+  <si>
+    <t>The factorial of 4 is: 24</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Calculate!</t>
   </si>
 </sst>
 </file>
@@ -402,32 +417,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C84E69-32AF-48A6-B8CB-A14A553E81BE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
